--- a/Master_EDA_Grid.xlsx
+++ b/Master_EDA_Grid.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anirudhyadav/Documents/GitHub/anirudhyadav.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550D8B37-DD1E-654F-A206-5693AEBCB758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12872A20-D13D-C24F-BD78-46C7140DF46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="172">
   <si>
     <t>#</t>
   </si>
@@ -40,9 +41,6 @@
     <t>Learning Outcomes</t>
   </si>
   <si>
-    <t>Introduction to EDA</t>
-  </si>
-  <si>
     <t>Load Dataset</t>
   </si>
   <si>
@@ -106,9 +104,6 @@
     <t>Statistical EDA</t>
   </si>
   <si>
-    <t>What, Why, When</t>
-  </si>
-  <si>
     <t>Upload or Select Sample Dataset</t>
   </si>
   <si>
@@ -172,9 +167,6 @@
     <t>Skewness, Outliers, Tests</t>
   </si>
   <si>
-    <t>Explain EDA’s role and importance in the ML pipeline</t>
-  </si>
-  <si>
     <t>Provide data for exploration</t>
   </si>
   <si>
@@ -238,9 +230,6 @@
     <t>Deep dive into statistical measures and assumptions</t>
   </si>
   <si>
-    <t>Text, infographics</t>
-  </si>
-  <si>
     <t>File uploader, dataset browser</t>
   </si>
   <si>
@@ -304,9 +293,6 @@
     <t>Z-score, IQR, QQ plots, T-tests, Chi-square</t>
   </si>
   <si>
-    <t>Build intuition around EDA purpose</t>
-  </si>
-  <si>
     <t>Practice sourcing and loading datasets</t>
   </si>
   <si>
@@ -368,13 +354,196 @@
   </si>
   <si>
     <t>Build analytical thinking for robust modeling foundations</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>1–2</t>
+  </si>
+  <si>
+    <t>Data Setup</t>
+  </si>
+  <si>
+    <t>Load + Overview</t>
+  </si>
+  <si>
+    <t>3–5</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Univariate, Bivariate, Multivariate</t>
+  </si>
+  <si>
+    <t>6–9</t>
+  </si>
+  <si>
+    <t>Structural</t>
+  </si>
+  <si>
+    <t>Missing, Outliers, Skew, Target</t>
+  </si>
+  <si>
+    <t>10–12</t>
+  </si>
+  <si>
+    <t>Statistical</t>
+  </si>
+  <si>
+    <t>Correlation, Class Imbalance, Cardinality</t>
+  </si>
+  <si>
+    <t>13–17</t>
+  </si>
+  <si>
+    <t>Diagnostic</t>
+  </si>
+  <si>
+    <t>Quality, Time, Multicollinearity, etc.</t>
+  </si>
+  <si>
+    <t>18–21</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Feature Hints, Clusters, AutoEDA, Stats</t>
+  </si>
+  <si>
+    <t>EDA Step</t>
+  </si>
+  <si>
+    <t>Insight Gained</t>
+  </si>
+  <si>
+    <t>Step 3 – Univariate Analysis</t>
+  </si>
+  <si>
+    <t>Found right-skew in key numerical variables: months_subscribed, days_active, and support_tickets.</t>
+  </si>
+  <si>
+    <t>Step 4 – Bivariate Analysis</t>
+  </si>
+  <si>
+    <t>Users with high support_tickets and low avg_sessions_per_week were strongly associated with churn.</t>
+  </si>
+  <si>
+    <t>Step 5 – Multivariate Analysis</t>
+  </si>
+  <si>
+    <t>Pairplots revealed high churn in low engagement clusters (low sessions, high inactivity, moderate account age).</t>
+  </si>
+  <si>
+    <t>Step 6 – Missing Value Analysis</t>
+  </si>
+  <si>
+    <t>last_active_date was missing only for churned users — not an error, but a behavioral signal.</t>
+  </si>
+  <si>
+    <t>Step 7 – Outlier Detection</t>
+  </si>
+  <si>
+    <t>Outliers in support_tickets (&gt;20) indicated extreme cases — isolated to just 0.5% of users.</t>
+  </si>
+  <si>
+    <t>Step 8 – Skewness &amp; Transformation</t>
+  </si>
+  <si>
+    <t>Heavy skew in days_active and months_subscribed; applied log transform for normalization.</t>
+  </si>
+  <si>
+    <t>Step 9 – Target Analysis</t>
+  </si>
+  <si>
+    <t>is_churned had ~18% positive cases — slightly imbalanced but still manageable.</t>
+  </si>
+  <si>
+    <t>Step 10 – Correlation Analysis</t>
+  </si>
+  <si>
+    <t>Weak correlation across most features, except days_since_last_login and is_churned (~0.75) — flagged for possible leakage.</t>
+  </si>
+  <si>
+    <t>Step 11 – Class Imbalance</t>
+  </si>
+  <si>
+    <t>Mild imbalance (churn ~18%), confirmed using pie and bar plots; triggered resampling consideration.</t>
+  </si>
+  <si>
+    <t>Step 12 – Cardinality Check</t>
+  </si>
+  <si>
+    <t>region and customer_segment had high cardinality — merged low-frequency values for generalization.</t>
+  </si>
+  <si>
+    <t>Step 13 – Data Quality Check</t>
+  </si>
+  <si>
+    <t>No duplicate rows, but detected zero-variance in marketing_channel for some regions — flagged for removal.</t>
+  </si>
+  <si>
+    <t>Step 14 – Time Series Profiling</t>
+  </si>
+  <si>
+    <t>Monthly churn analysis revealed seasonal drop-offs in Q4 (especially November–December).</t>
+  </si>
+  <si>
+    <t>Step 15 – Multicollinearity</t>
+  </si>
+  <si>
+    <t>Moderate collinearity between days_active and months_subscribed — VIF ~6.1.</t>
+  </si>
+  <si>
+    <t>Step 16 – Interaction Effects</t>
+  </si>
+  <si>
+    <t>Created a custom feature avg_sessions_per_week × support_tickets — strong churn indicator.</t>
+  </si>
+  <si>
+    <t>Step 17 – Data Leakage Check</t>
+  </si>
+  <si>
+    <t>days_since_last_login had suspiciously high predictive power — refactored for use in inference only.</t>
+  </si>
+  <si>
+    <t>Step 18 – Feature Engineering Hints</t>
+  </si>
+  <si>
+    <t>Derived engagement_ratio = sessions / days_active, which sharply differentiated churners from retained users.</t>
+  </si>
+  <si>
+    <t>Step 19 – Clustering Patterns</t>
+  </si>
+  <si>
+    <t>PCA + KMeans revealed 3 clear churn-prone user segments based on engagement and tenure.</t>
+  </si>
+  <si>
+    <t>Step 20 – AutoEDA Tools</t>
+  </si>
+  <si>
+    <t>Used ydata-profiling to generate HTML reports; flagged same features as our manual insights.</t>
+  </si>
+  <si>
+    <t>Step 21 – Statistical EDA</t>
+  </si>
+  <si>
+    <t>ANOVA tests showed avg_sessions, support_tickets, and days_since_last_login were statistically significant (p &lt; 0.001).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,16 +559,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -422,15 +620,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -752,22 +977,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -775,440 +1000,748 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>94</v>
+      <c r="C2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>95</v>
+      <c r="C3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>96</v>
+      <c r="C4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
+      <c r="C6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>99</v>
+      <c r="C7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" t="s">
-        <v>100</v>
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
+      <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
-        <v>102</v>
+      <c r="C10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>103</v>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" t="s">
-        <v>104</v>
+      <c r="C12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" t="s">
-        <v>105</v>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" t="s">
-        <v>106</v>
+      <c r="C14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
-        <v>107</v>
+      <c r="C15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" t="s">
-        <v>108</v>
+      <c r="C16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" t="s">
-        <v>109</v>
+      <c r="C17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" t="s">
-        <v>110</v>
+      <c r="C18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" t="s">
-        <v>111</v>
+      <c r="C19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" t="s">
-        <v>112</v>
+      <c r="C20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" t="s">
-        <v>113</v>
+      <c r="C21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="C22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D29" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E29" s="3" t="s">
         <v>115</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6035D60A-76A8-134E-B616-E619B6741098}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="59.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="29" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.6640625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F16" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F17" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F18" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F21" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
